--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_7_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_7_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.37000000000021</v>
+        <v>23.39000000000022</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.555478843607925e-16</v>
+        <v>1.552759475000219e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>45.52210928989152</v>
+        <v>48.03862055582928</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[43.030271390153096, 48.01394718962995]</t>
+          <t>[45.61044506349436, 50.46679604816419]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.50318447288881</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4402897250691948, 1.566079220708425]</t>
+          <t>[1.5031844728888082, 1.603816069400196]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>50.94186927989016</v>
+        <v>52.96021052977162</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.302677544329846, 52.581061015450466]</t>
+          <t>[51.282031631150595, 54.638389428392635]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.77897897897914</v>
+        <v>17.60688688688705</v>
       </c>
       <c r="X2" t="n">
-        <v>17.54504504504521</v>
+        <v>17.41957957957974</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.01291291291307</v>
+        <v>17.79419419419436</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.80000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,18 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.555478843607925e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9275775418992193</v>
-      </c>
+        <v>1.552759475000219e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.58550598589566</v>
+        <v>45.90612209995172</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[45.933016890491686, 51.23799508129963]</t>
+          <t>[42.840851784501574, 48.97139241540186]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1132105460753081</v>
+        <v>-0.3396316382259235</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.17610529389492324, -0.05031579825569299]</t>
+          <t>[-0.4025263860455386, -0.27673689040630833]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0004509809871930948</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0004509809871930948</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.0321473538412</v>
+        <v>51.35588203451256</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.29855334000607, 54.76574136767632]</t>
+          <t>[49.576511164469174, 53.13525290455595]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4108108108108119</v>
+        <v>1.230270270270278</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1825825825825838</v>
+        <v>1.002442442442451</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6390390390390401</v>
+        <v>1.458098098098106</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_7_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_7_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.39000000000022</v>
+        <v>23.43000000000022</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.552759475000219e-16</v>
+        <v>1.513080783134796e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.03862055582928</v>
+        <v>46.88633518874175</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[45.61044506349436, 50.46679604816419]</t>
+          <t>[44.49435107729088, 49.278319300192614]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.553500271144502</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5031844728888082, 1.603816069400196]</t>
+          <t>[1.5283423720166551, 1.6541318676558872]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.96021052977162</v>
+        <v>52.08907820096989</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.282031631150595, 54.638389428392635]</t>
+          <t>[50.44516318309525, 53.73299321884454]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.60688688688705</v>
+        <v>17.49627627627645</v>
       </c>
       <c r="X2" t="n">
-        <v>17.41957957957974</v>
+        <v>17.26174174174191</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.79419419419436</v>
+        <v>17.73081081081099</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.76000000000012</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.552759475000219e-16</v>
+        <v>1.513080783134796e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.90612209995172</v>
+        <v>46.85365367883448</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[42.840851784501574, 48.97139241540186]</t>
+          <t>[44.11065490706475, 49.5966524506042]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.3396316382259235</v>
+        <v>-0.1006315965113851</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.4025263860455386, -0.27673689040630833]</t>
+          <t>[-0.16352634433100022, -0.037736848691769964]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.001785666079981318</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.001785666079981318</v>
       </c>
       <c r="S3" t="n">
-        <v>51.35588203451256</v>
+        <v>51.09457522013452</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.576511164469174, 53.13525290455595]</t>
+          <t>[49.335328476718836, 52.853821963550196]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.230270270270278</v>
+        <v>0.3653253253253297</v>
       </c>
       <c r="X3" t="n">
-        <v>1.002442442442451</v>
+        <v>0.1369969969970014</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.458098098098106</v>
+        <v>0.5936536536536581</v>
       </c>
     </row>
   </sheetData>
